--- a/config_Release/fish3d_path_config.xlsx
+++ b/config_Release/fish3d_path_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_2.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config|鱼线配置" sheetId="5" r:id="rId1"/>
@@ -1707,14 +1707,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>-16.25#0.14#-2.94#-0.04</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>15.25#0.13#3.06#-0.02</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>0.01#-10.06#-0.01#10.07</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1909,6 +1901,14 @@
   <si>
     <t>3+80#</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-15#0.01#-3#-0.01</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.33#0.01#3#-0.01</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2354,8 +2354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84:C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3307,7 +3307,7 @@
         <v>61</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D62">
         <v>-4</v>
@@ -3561,7 +3561,7 @@
         <v>83</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -3572,7 +3572,7 @@
         <v>84</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -3583,7 +3583,7 @@
         <v>85</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -3594,7 +3594,7 @@
         <v>86</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -3605,7 +3605,7 @@
         <v>87</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -3616,7 +3616,7 @@
         <v>88</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -3627,7 +3627,7 @@
         <v>89</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -3638,7 +3638,7 @@
         <v>90</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -3649,7 +3649,7 @@
         <v>91</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -3660,7 +3660,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -3671,7 +3671,7 @@
         <v>93</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -3682,7 +3682,7 @@
         <v>94</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -3693,7 +3693,7 @@
         <v>95</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -3704,7 +3704,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -3715,7 +3715,7 @@
         <v>97</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -3726,7 +3726,7 @@
         <v>98</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -3737,7 +3737,7 @@
         <v>99</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -3748,7 +3748,7 @@
         <v>100</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -3759,7 +3759,7 @@
         <v>101</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -3770,7 +3770,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -3781,7 +3781,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -3792,7 +3792,7 @@
         <v>104</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -3806,8 +3806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4659,7 +4659,7 @@
         <v>73</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D74" s="12"/>
     </row>
@@ -4671,7 +4671,7 @@
         <v>74</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D75" s="12"/>
     </row>
@@ -4683,7 +4683,7 @@
         <v>75</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D76" s="12"/>
     </row>
@@ -4695,7 +4695,7 @@
         <v>76</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D77" s="12"/>
     </row>
@@ -4707,7 +4707,7 @@
         <v>77</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -4718,7 +4718,7 @@
         <v>78</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D79" s="12"/>
     </row>
@@ -4730,7 +4730,7 @@
         <v>79</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D80" s="12"/>
     </row>
@@ -4742,10 +4742,10 @@
         <v>80</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E81">
         <v>81</v>
@@ -4759,10 +4759,10 @@
         <v>81</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E82">
         <v>81</v>
@@ -4776,8 +4776,9 @@
         <v>82</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>167</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="D83" s="12"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
@@ -4787,8 +4788,9 @@
         <v>83</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>179</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="D84" s="12"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
@@ -4798,8 +4800,9 @@
         <v>84</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>168</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="D85" s="12"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
@@ -4809,8 +4812,9 @@
         <v>85</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>178</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="D86" s="12"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
@@ -4820,7 +4824,7 @@
         <v>86</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -4831,7 +4835,7 @@
         <v>87</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E88">
         <v>87</v>
@@ -4845,7 +4849,7 @@
         <v>88</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E89">
         <v>88</v>
@@ -4859,7 +4863,7 @@
         <v>89</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E90">
         <v>89</v>
@@ -4873,7 +4877,7 @@
         <v>90</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E91">
         <v>90</v>
@@ -4887,7 +4891,7 @@
         <v>91</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E92">
         <v>91</v>
@@ -4901,7 +4905,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E93">
         <v>92</v>
@@ -4915,7 +4919,7 @@
         <v>93</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E94">
         <v>93</v>
@@ -4929,7 +4933,7 @@
         <v>94</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E95">
         <v>94</v>
@@ -4943,7 +4947,7 @@
         <v>95</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -4954,7 +4958,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -4965,7 +4969,7 @@
         <v>97</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -4976,7 +4980,7 @@
         <v>98</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -4987,7 +4991,7 @@
         <v>99</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E100">
         <v>102</v>
@@ -5001,7 +5005,7 @@
         <v>100</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E101">
         <v>103</v>
@@ -5015,7 +5019,7 @@
         <v>101</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E102">
         <v>104</v>
@@ -5029,7 +5033,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E103">
         <v>105</v>
@@ -5043,7 +5047,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E104">
         <v>106</v>
@@ -5057,7 +5061,7 @@
         <v>104</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E105">
         <v>107</v>
@@ -5071,7 +5075,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E106">
         <v>108</v>
